--- a/data/trans_orig/P43B-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P43B-Clase-trans_orig.xlsx
@@ -623,19 +623,19 @@
         <v>47573</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>36476</v>
+        <v>36802</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>60492</v>
+        <v>59754</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3566395548448901</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2734526625946423</v>
+        <v>0.2758982309927285</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4534937992445405</v>
+        <v>0.4479594105868608</v>
       </c>
     </row>
     <row r="5">
@@ -652,19 +652,19 @@
         <v>85818</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>72899</v>
+        <v>73637</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>96915</v>
+        <v>96589</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6433604451551099</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5465062007554594</v>
+        <v>0.5520405894131393</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7265473374053572</v>
+        <v>0.7241017690072715</v>
       </c>
     </row>
     <row r="6">
@@ -714,19 +714,19 @@
         <v>44849</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>32279</v>
+        <v>33884</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>55934</v>
+        <v>57488</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3572030617926906</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2570916593133257</v>
+        <v>0.2698744186560257</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4454951435094781</v>
+        <v>0.4578674452084047</v>
       </c>
     </row>
     <row r="8">
@@ -743,19 +743,19 @@
         <v>80706</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>69621</v>
+        <v>68067</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>93276</v>
+        <v>91671</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6427969382073094</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5545048564905219</v>
+        <v>0.5421325547915953</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7429083406866742</v>
+        <v>0.7301255813439741</v>
       </c>
     </row>
     <row r="9">
@@ -805,19 +805,19 @@
         <v>21846</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>14102</v>
+        <v>13264</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>32971</v>
+        <v>32299</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1637059041943519</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1056714132169334</v>
+        <v>0.0993936358815226</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2470688343481422</v>
+        <v>0.2420314703421235</v>
       </c>
     </row>
     <row r="11">
@@ -834,19 +834,19 @@
         <v>111602</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>100477</v>
+        <v>101149</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>119346</v>
+        <v>120184</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8362940958056481</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7529311656518579</v>
+        <v>0.7579685296578764</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8943285867830667</v>
+        <v>0.9006063641184773</v>
       </c>
     </row>
     <row r="12">
@@ -896,19 +896,19 @@
         <v>42045</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>30299</v>
+        <v>30025</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>56598</v>
+        <v>57096</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1423254225399154</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1025625349063713</v>
+        <v>0.1016357604705182</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1915862379184745</v>
+        <v>0.1932723612703739</v>
       </c>
     </row>
     <row r="14">
@@ -925,19 +925,19 @@
         <v>253371</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>238818</v>
+        <v>238320</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>265117</v>
+        <v>265391</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8576745774600846</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8084137620815255</v>
+        <v>0.8067276387296263</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8974374650936287</v>
+        <v>0.8983642395294819</v>
       </c>
     </row>
     <row r="15">
@@ -987,19 +987,19 @@
         <v>32204</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>22146</v>
+        <v>22544</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>45358</v>
+        <v>46129</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.08305393707889205</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05711384087131954</v>
+        <v>0.0581406048534272</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.116976690776387</v>
+        <v>0.1189655981947579</v>
       </c>
     </row>
     <row r="17">
@@ -1016,19 +1016,19 @@
         <v>355547</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>342393</v>
+        <v>341622</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>365605</v>
+        <v>365207</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9169460629211079</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8830233092236129</v>
+        <v>0.8810344018052422</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9428861591286806</v>
+        <v>0.9418593951465729</v>
       </c>
     </row>
     <row r="18">
@@ -1078,19 +1078,19 @@
         <v>45519</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>33344</v>
+        <v>31947</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>61353</v>
+        <v>59482</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.08172406883495781</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.05986675125262412</v>
+        <v>0.05735690990002452</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.110154142863067</v>
+        <v>0.1067941637801706</v>
       </c>
     </row>
     <row r="20">
@@ -1107,19 +1107,19 @@
         <v>511459</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>495625</v>
+        <v>497496</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>523634</v>
+        <v>525031</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9182759311650421</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8898458571369332</v>
+        <v>0.8932058362198295</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.940133248747376</v>
+        <v>0.9426430900999755</v>
       </c>
     </row>
     <row r="21">
@@ -1169,19 +1169,19 @@
         <v>234035</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>203487</v>
+        <v>206225</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>262695</v>
+        <v>265796</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.143356630579043</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.124644378601428</v>
+        <v>0.1263214198820052</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1609120981067347</v>
+        <v>0.1628116060652607</v>
       </c>
     </row>
     <row r="23">
@@ -1198,19 +1198,19 @@
         <v>1398505</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1369845</v>
+        <v>1366744</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1429053</v>
+        <v>1426315</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.856643369420957</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8390879018932654</v>
+        <v>0.8371883939347393</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8753556213985723</v>
+        <v>0.8736785801179946</v>
       </c>
     </row>
     <row r="24">
@@ -1380,19 +1380,19 @@
         <v>50363</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>38459</v>
+        <v>38881</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>62655</v>
+        <v>63313</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3056105863525391</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2333746868836387</v>
+        <v>0.2359317572290864</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3801996022735874</v>
+        <v>0.3841916275807652</v>
       </c>
     </row>
     <row r="5">
@@ -1409,19 +1409,19 @@
         <v>114433</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>102141</v>
+        <v>101483</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>126337</v>
+        <v>125915</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6943894136474609</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6198003977264128</v>
+        <v>0.6158083724192345</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7666253131163613</v>
+        <v>0.7640682427709137</v>
       </c>
     </row>
     <row r="6">
@@ -1471,19 +1471,19 @@
         <v>46268</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>34007</v>
+        <v>34830</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>59032</v>
+        <v>58924</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2709659939689044</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1991608393024253</v>
+        <v>0.2039825093443932</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3457152709288243</v>
+        <v>0.3450851741340729</v>
       </c>
     </row>
     <row r="8">
@@ -1500,19 +1500,19 @@
         <v>124484</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>111720</v>
+        <v>111828</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>136745</v>
+        <v>135922</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7290340060310956</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6542847290711757</v>
+        <v>0.6549148258659271</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8008391606975748</v>
+        <v>0.7960174906556063</v>
       </c>
     </row>
     <row r="9">
@@ -1562,19 +1562,19 @@
         <v>12707</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7473</v>
+        <v>7571</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>21415</v>
+        <v>20259</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1433840871889262</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.08432980494434743</v>
+        <v>0.08543295721481035</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.24164960996863</v>
+        <v>0.2286055269691357</v>
       </c>
     </row>
     <row r="11">
@@ -1591,19 +1591,19 @@
         <v>75915</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>67207</v>
+        <v>68363</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>81149</v>
+        <v>81051</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8566159128110737</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7583503900313703</v>
+        <v>0.7713944730308636</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9156701950556527</v>
+        <v>0.9145670427851893</v>
       </c>
     </row>
     <row r="12">
@@ -1653,19 +1653,19 @@
         <v>32081</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>22367</v>
+        <v>21478</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>45077</v>
+        <v>44327</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1002905673677724</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06992526414469306</v>
+        <v>0.06714513714803436</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1409202062303103</v>
+        <v>0.138574782962723</v>
       </c>
     </row>
     <row r="14">
@@ -1682,19 +1682,19 @@
         <v>287796</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>274800</v>
+        <v>275550</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>297510</v>
+        <v>298399</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8997094326322276</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8590797937696897</v>
+        <v>0.8614252170372764</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9300747358553069</v>
+        <v>0.9328548628519654</v>
       </c>
     </row>
     <row r="15">
@@ -1744,19 +1744,19 @@
         <v>18905</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>11940</v>
+        <v>10969</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>30223</v>
+        <v>30433</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04750655002446469</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03000517375523628</v>
+        <v>0.02756502003727125</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07594734600756937</v>
+        <v>0.07647465778282123</v>
       </c>
     </row>
     <row r="17">
@@ -1773,19 +1773,19 @@
         <v>379041</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>367723</v>
+        <v>367513</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>386006</v>
+        <v>386977</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9524934499755353</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9240526539924306</v>
+        <v>0.9235253422171791</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9699948262447637</v>
+        <v>0.9724349799627292</v>
       </c>
     </row>
     <row r="18">
@@ -1835,19 +1835,19 @@
         <v>48024</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>35684</v>
+        <v>34943</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>63533</v>
+        <v>64583</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.08839208676605495</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0656779696520171</v>
+        <v>0.06431528668127032</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1169366461635473</v>
+        <v>0.1188682714671581</v>
       </c>
     </row>
     <row r="20">
@@ -1864,19 +1864,19 @@
         <v>495288</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>479779</v>
+        <v>478729</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>507628</v>
+        <v>508369</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9116079132339451</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8830633538364526</v>
+        <v>0.8811317285328418</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9343220303479829</v>
+        <v>0.9356847133187297</v>
       </c>
     </row>
     <row r="21">
@@ -1926,19 +1926,19 @@
         <v>208349</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>180352</v>
+        <v>182367</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>235697</v>
+        <v>241503</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1236266789035166</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1070142514688297</v>
+        <v>0.1082100915978393</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1398541548465853</v>
+        <v>0.1432989521361711</v>
       </c>
     </row>
     <row r="23">
@@ -1955,19 +1955,19 @@
         <v>1476957</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1449609</v>
+        <v>1443803</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1504954</v>
+        <v>1502939</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8763733210964834</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8601458451534146</v>
+        <v>0.8567010478638286</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8929857485311702</v>
+        <v>0.8917899084021607</v>
       </c>
     </row>
     <row r="24">
@@ -2137,19 +2137,19 @@
         <v>92856</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>81146</v>
+        <v>81279</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>104276</v>
+        <v>103548</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.4438018217777936</v>
+        <v>0.4438018217777935</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3878344666102816</v>
+        <v>0.3884705720198452</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4983846901788707</v>
+        <v>0.494905296462098</v>
       </c>
     </row>
     <row r="5">
@@ -2166,19 +2166,19 @@
         <v>116372</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>104952</v>
+        <v>105680</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>128082</v>
+        <v>127949</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5561981782222064</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5016153098211295</v>
+        <v>0.5050947035379022</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6121655333897185</v>
+        <v>0.6115294279801549</v>
       </c>
     </row>
     <row r="6">
@@ -2228,19 +2228,19 @@
         <v>64622</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>54777</v>
+        <v>53789</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>76100</v>
+        <v>75349</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3508910854829655</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2974309612044272</v>
+        <v>0.2920704864031143</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4132158747471776</v>
+        <v>0.4091376173573491</v>
       </c>
     </row>
     <row r="8">
@@ -2257,19 +2257,19 @@
         <v>119544</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>108066</v>
+        <v>108817</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>129389</v>
+        <v>130377</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.6491089145170346</v>
+        <v>0.6491089145170347</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5867841252528224</v>
+        <v>0.5908623826426513</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7025690387955728</v>
+        <v>0.7079295135968857</v>
       </c>
     </row>
     <row r="9">
@@ -2319,19 +2319,19 @@
         <v>12553</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7708</v>
+        <v>8241</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>18342</v>
+        <v>18478</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1530499309903952</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.09397265367534172</v>
+        <v>0.1004701568888939</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2236343382784799</v>
+        <v>0.2252901451315893</v>
       </c>
     </row>
     <row r="11">
@@ -2348,19 +2348,19 @@
         <v>69467</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>63678</v>
+        <v>63542</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>74312</v>
+        <v>73779</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.8469500690096047</v>
+        <v>0.8469500690096049</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7763656617215204</v>
+        <v>0.7747098548684107</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9060273463246583</v>
+        <v>0.8995298431111062</v>
       </c>
     </row>
     <row r="12">
@@ -2410,19 +2410,19 @@
         <v>41113</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>31750</v>
+        <v>32019</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>51995</v>
+        <v>52682</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.1366937749034901</v>
+        <v>0.13669377490349</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1055655511289412</v>
+        <v>0.1064588969253768</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1728750334066564</v>
+        <v>0.1751601181795519</v>
       </c>
     </row>
     <row r="14">
@@ -2439,19 +2439,19 @@
         <v>259652</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>248770</v>
+        <v>248083</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>269015</v>
+        <v>268746</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8633062250965101</v>
+        <v>0.8633062250965098</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8271249665933436</v>
+        <v>0.8248398818204482</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8944344488710584</v>
+        <v>0.8935411030746232</v>
       </c>
     </row>
     <row r="15">
@@ -2501,19 +2501,19 @@
         <v>22142</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>15093</v>
+        <v>15486</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>31981</v>
+        <v>31252</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.06331361501056786</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04315645308975963</v>
+        <v>0.04428064731642282</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.09144721580247384</v>
+        <v>0.08936206596074325</v>
       </c>
     </row>
     <row r="17">
@@ -2530,19 +2530,19 @@
         <v>327581</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>317742</v>
+        <v>318471</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>334630</v>
+        <v>334237</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.936686384989432</v>
+        <v>0.9366863849894322</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9085527841975248</v>
+        <v>0.9106379340392569</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9568435469102401</v>
+        <v>0.9557193526835771</v>
       </c>
     </row>
     <row r="18">
@@ -2592,19 +2592,19 @@
         <v>25728</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>19088</v>
+        <v>18693</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>35396</v>
+        <v>34744</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.08373176916056232</v>
+        <v>0.08373176916056234</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.06212122177385345</v>
+        <v>0.06083598875137202</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1151953840625644</v>
+        <v>0.1130747687220522</v>
       </c>
     </row>
     <row r="20">
@@ -2621,19 +2621,19 @@
         <v>281537</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>271869</v>
+        <v>272521</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>288177</v>
+        <v>288572</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.9162682308394375</v>
+        <v>0.9162682308394376</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8848046159374368</v>
+        <v>0.8869252312779476</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9378787782261466</v>
+        <v>0.9391640112486279</v>
       </c>
     </row>
     <row r="21">
@@ -2683,19 +2683,19 @@
         <v>259014</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>237699</v>
+        <v>237068</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>285356</v>
+        <v>284001</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1807283145143902</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1658557066181234</v>
+        <v>0.1654151761413782</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1991087082218723</v>
+        <v>0.1981635513336385</v>
       </c>
     </row>
     <row r="23">
@@ -2712,19 +2712,19 @@
         <v>1174153</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1147811</v>
+        <v>1149166</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1195468</v>
+        <v>1196099</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.8192716854856098</v>
+        <v>0.8192716854856097</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8008912917781276</v>
+        <v>0.8018364486663615</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8341442933818765</v>
+        <v>0.8345848238586218</v>
       </c>
     </row>
     <row r="24">
